--- a/data/income_statement/2digits/size/41_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/41_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>41-Construction of buildings</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>41-Construction of buildings</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>6866527.06123</v>
+        <v>7762905.241299999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6766984.41684</v>
+        <v>7791517.58968</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7772182.73505</v>
+        <v>8952471.491300002</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8198263.59213</v>
+        <v>9622229.367450001</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8890194.873629998</v>
+        <v>10607988.64</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>8394293.397219999</v>
+        <v>10299055.94634</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>7966078.49846</v>
+        <v>10381021.89615</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10118845.19499</v>
+        <v>12757507.10125</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10595969.71758</v>
+        <v>13717356.12015</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>25724192.05426</v>
+        <v>31187995.9959</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>29054524.24672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>36859745.13871</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>36308312.252</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>6490905.88107</v>
+        <v>7315313.88623</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>6394770.24538</v>
+        <v>7325924.750019999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7135868.71839</v>
+        <v>8214169.45972</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>7261074.83578</v>
+        <v>8570997.073859999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>8014157.547799999</v>
+        <v>9560401.254520001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7687271.10874</v>
+        <v>9437425.106079999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>7632200.0182</v>
+        <v>9843154.19757</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>9605201.555</v>
+        <v>12029275.45706</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>10128686.88147</v>
+        <v>12991814.26102</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>24543016.67278</v>
+        <v>29563136.39748</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>27654699.97751</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34902013.84468</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>34134059.863</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>235865.96859</v>
+        <v>253160.26021</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>157644.52999</v>
+        <v>181302.76583</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>366877.81373</v>
+        <v>394686.84875</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>718243.3865700001</v>
+        <v>747389.3141699999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>650440.17314</v>
+        <v>685209.9407</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>570207.07581</v>
+        <v>601599.9915</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>154976.9661</v>
+        <v>190019.38697</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>307019.66521</v>
+        <v>337522.81385</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>283012.90707</v>
+        <v>324512.82872</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>708465.58815</v>
+        <v>805681.78665</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>830135.74078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>954887.39443</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1142551.327</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>139755.21157</v>
+        <v>194431.09486</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>214569.64147</v>
+        <v>284290.07383</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>269436.20293</v>
+        <v>343615.18283</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>218945.36978</v>
+        <v>303842.97942</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>225597.15269</v>
+        <v>362377.44478</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>136815.21267</v>
+        <v>260030.84876</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>178901.51416</v>
+        <v>347848.31161</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>206623.97478</v>
+        <v>390708.83034</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>184269.92904</v>
+        <v>401029.0304099999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>472709.79333</v>
+        <v>819177.81177</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>569688.5284299999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1002843.8996</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1031701.062</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>15420.47507</v>
+        <v>21742.80634</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>15120.55895</v>
+        <v>26420.05847</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>35372.45705</v>
+        <v>42869.12807999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>48387.98359</v>
+        <v>60914.62674</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>63937.51854999999</v>
+        <v>158006.11603</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>116102.04119</v>
+        <v>138492.17175</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>58574.62854000001</v>
+        <v>72737.67964</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>19965.96689</v>
+        <v>42359.19777000001</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>28074.25472</v>
+        <v>46960.22452</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>80211.94550999999</v>
+        <v>146160.31828</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>81282.76945000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>144059.77585</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>316661.58</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>13066.32044</v>
+        <v>18685.85078</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>11976.89824</v>
+        <v>20204.67427</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>30385.45522</v>
+        <v>35801.17965</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>46695.29626</v>
+        <v>57595.43922</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>61436.00744000001</v>
+        <v>154188.05154</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>115274.16642</v>
+        <v>135828.28509</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>55037.73347</v>
+        <v>67875.41606</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>17489.2759</v>
+        <v>29894.18453</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>16655.57991</v>
+        <v>33583.80657</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>68978.30008999999</v>
+        <v>126023.94694</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>68587.55482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>119094.32414</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>288828.385</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1809.2183</v>
+        <v>2416.3497</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2291.66519</v>
+        <v>2979.01936</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3921.33353</v>
+        <v>5310.18029</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1352.88294</v>
+        <v>2319.54118</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1671.36449</v>
+        <v>1855.8432</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>549.77067</v>
+        <v>1335.55248</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2294.36196</v>
+        <v>2366.8057</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1633.88892</v>
+        <v>2925.7848</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>8584.046920000001</v>
+        <v>8963.86393</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3428.21906</v>
+        <v>4385.967019999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3599.46843</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10021.74511</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>15257.23</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>544.93633</v>
+        <v>640.60586</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>851.9955199999999</v>
+        <v>3236.36484</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1065.6683</v>
+        <v>1757.76814</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>339.80439</v>
+        <v>999.64634</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>830.14662</v>
+        <v>1962.22129</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>278.1041</v>
+        <v>1328.33418</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1242.53311</v>
+        <v>2495.45788</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>842.8020700000001</v>
+        <v>9539.228439999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2834.62789</v>
+        <v>4412.55402</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>7805.42636</v>
+        <v>15750.40432</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>9095.7462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14943.7066</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>12575.965</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>6851106.586159999</v>
+        <v>7741162.43496</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6751863.857890001</v>
+        <v>7765097.53121</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>7736810.278</v>
+        <v>8909602.363219999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8149875.60854</v>
+        <v>9561314.74071</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8826257.355079999</v>
+        <v>10449982.52397</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>8278191.356029999</v>
+        <v>10160563.77459</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>7907503.86992</v>
+        <v>10308284.21651</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10098879.2281</v>
+        <v>12715147.90348</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>10567895.46286</v>
+        <v>13670395.89563</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>25643980.10875</v>
+        <v>31041835.67762</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>28973241.47727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>36715685.36286</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>35991650.672</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>5789010.62482</v>
+        <v>6460402.24271</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5624079.77719</v>
+        <v>6374522.68136</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6390058.72204</v>
+        <v>7255095.39314</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6998571.63685</v>
+        <v>8049643.923110001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7858360.34046</v>
+        <v>9090944.160540001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>7323012.74708</v>
+        <v>8776858.637799999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6774862.07099</v>
+        <v>8596909.78255</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8952054.080459999</v>
+        <v>10928635.74639</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>9468492.774180001</v>
+        <v>11719645.76865</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>22829183.06858</v>
+        <v>26991377.74388</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>25796218.84125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>31858136.13124</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>31066556.733</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1282924.23046</v>
+        <v>1517102.17501</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1207956.93299</v>
+        <v>1464391.7114</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1320134.96097</v>
+        <v>1633599.34965</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1434841.77571</v>
+        <v>1827563.03926</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>1976515.87368</v>
+        <v>2527728.82168</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>1668244.27797</v>
+        <v>2306243.0611</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1787747.69096</v>
+        <v>2543310.404180001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1987821.37615</v>
+        <v>2868885.76077</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2236789.13931</v>
+        <v>3228818.24366</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>7500723.501850001</v>
+        <v>9248187.77138</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>9650116.132440001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12110505.5082</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>9337613.257999999</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>2492835.71229</v>
+        <v>2695723.56818</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>2563856.51568</v>
+        <v>2792716.08151</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>2973781.97911</v>
+        <v>3239961.06963</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3578214.57311</v>
+        <v>3905194.4787</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>3769933.50542</v>
+        <v>4101288.47712</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>3516593.2979</v>
+        <v>3910914.78388</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>2839393.42466</v>
+        <v>3367784.93937</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4597187.10357</v>
+        <v>5149308.845430001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4502085.542979999</v>
+        <v>5160460.856930001</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>9055478.934319999</v>
+        <v>10343527.51218</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>9402925.684770001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11433139.33181</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>14441571.841</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1977946.39251</v>
+        <v>2205378.11576</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1820662.51526</v>
+        <v>2076666.39542</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2055615.42221</v>
+        <v>2331553.73845</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1961455.33168</v>
+        <v>2280100.51095</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2060454.41142</v>
+        <v>2394319.24446</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2102638.58506</v>
+        <v>2501795.48009</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2009529.9635</v>
+        <v>2499429.6263</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2302011.97701</v>
+        <v>2794610.5288</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2654550.55515</v>
+        <v>3199402.59399</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>6043535.51678</v>
+        <v>7064114.42668</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6457710.30379</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>7902801.85938</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6861431.219</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>35304.28956</v>
+        <v>42198.38376</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>31603.81326</v>
+        <v>40748.49303</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>40526.35975</v>
+        <v>49981.23540999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>24059.95635</v>
+        <v>36785.8942</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>51456.54994</v>
+        <v>67607.61728000001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>35536.58615</v>
+        <v>57905.31273</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>138190.99187</v>
+        <v>186384.8127</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>65033.62373000001</v>
+        <v>115830.61139</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>75067.53674</v>
+        <v>130964.07407</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>229445.11563</v>
+        <v>335548.03364</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>285466.72025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>411689.4318500001</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>425940.415</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1062095.96134</v>
+        <v>1280760.19225</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1127784.0807</v>
+        <v>1390574.84985</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1346751.55596</v>
+        <v>1654506.97008</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1151303.97169</v>
+        <v>1511670.8176</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>967897.01462</v>
+        <v>1359038.36343</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>955178.6089499999</v>
+        <v>1383705.13679</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1132641.79893</v>
+        <v>1711374.43396</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1146825.14764</v>
+        <v>1786512.15709</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1099402.68868</v>
+        <v>1950750.12698</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2814797.040169999</v>
+        <v>4050457.93374</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3177022.63602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4857549.23162</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4925093.939</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>924945.05145</v>
+        <v>1322112.14853</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1004068.40385</v>
+        <v>1508538.45894</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1244565.73382</v>
+        <v>1802634.97539</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1099445.76873</v>
+        <v>1720203.48215</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>988447.99112</v>
+        <v>1725244.1271</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>967696.63302</v>
+        <v>1823034.06733</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1190711.44181</v>
+        <v>2307214.26985</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1247617.07157</v>
+        <v>2534567.37141</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1219664.67621</v>
+        <v>2607893.84401</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2604289.46838</v>
+        <v>4247335.07946</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2995184.54701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4909107.995479999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5166604.774</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>1853.80848</v>
+        <v>2277.63282</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>5405.09483</v>
+        <v>8796.89925</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>6834.41468</v>
+        <v>7086.85652</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>3875.67919</v>
+        <v>6054.1285</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2889.12386</v>
+        <v>3178.40228</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1830.1692</v>
+        <v>3472.13698</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2220.32668</v>
+        <v>3169.54092</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1293.76882</v>
+        <v>1738.30349</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3839.85198</v>
+        <v>6189.89566</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7759.824769999999</v>
+        <v>9099.799300000001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>6061.17488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7215.05746</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>3919.712</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>84468.9719</v>
+        <v>118106.72508</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>90738.84633</v>
+        <v>121276.69371</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>200013.00631</v>
+        <v>236940.24505</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>129860.0852</v>
+        <v>162304.47297</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>81789.97269</v>
+        <v>129164.60323</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>71625.09624000001</v>
+        <v>114486.10803</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>89950.35026000001</v>
+        <v>142703.51692</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>88667.36521999999</v>
+        <v>156152.82514</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>86266.42436</v>
+        <v>160313.26164</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>204323.57329</v>
+        <v>308526.36282</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>302802.1418400001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>411850.8655900001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>484517.892</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>838622.27107</v>
+        <v>1201727.79063</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>907924.4626900001</v>
+        <v>1378464.86598</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1037718.31283</v>
+        <v>1558607.87382</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>965710.0043399999</v>
+        <v>1551844.88068</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>903768.89457</v>
+        <v>1592901.12159</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>894241.3675800001</v>
+        <v>1705075.82232</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1098540.76487</v>
+        <v>2161341.21201</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1157655.93753</v>
+        <v>2376676.24278</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1129558.39987</v>
+        <v>2441390.68671</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2392206.070319999</v>
+        <v>3929708.91734</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2686321.23029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4490042.072430001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4678167.17</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>137150.90989</v>
+        <v>-41351.95628</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>123715.67685</v>
+        <v>-117963.60909</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>102185.82214</v>
+        <v>-148128.00531</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>51858.20296</v>
+        <v>-208532.66455</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-20550.9765</v>
+        <v>-366205.76367</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-12518.02407</v>
+        <v>-439328.93054</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-58069.64287999999</v>
+        <v>-595839.83589</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-100791.92393</v>
+        <v>-748055.2143199999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-120261.98753</v>
+        <v>-657143.7170299999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>210507.57179</v>
+        <v>-196877.14572</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>181838.08901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-51558.76386000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-241510.835</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>66500.09298999999</v>
+        <v>761738.50115</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>82261.25304</v>
+        <v>1248932.59156</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>86214.47851999999</v>
+        <v>1290863.97854</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>69265.32421999999</v>
+        <v>937808.57888</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>66354.71511999999</v>
+        <v>1240939.16252</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>114604.32276</v>
+        <v>1535323.92559</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>73090.6326</v>
+        <v>1919756.89405</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>85877.24065000001</v>
+        <v>2455841.01416</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>81650.36719000002</v>
+        <v>2605522.93972</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>363035.92098</v>
+        <v>5710372.27187</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>336394.52752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3446404.08902</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4894597.085</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4044.32043</v>
+        <v>92822.80735</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3476.88246</v>
+        <v>100355.89116</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4544.983470000001</v>
+        <v>103671.6659</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4264.03024</v>
+        <v>93385.90639</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2138.21467</v>
+        <v>241293.58964</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2149.43859</v>
+        <v>175766.60095</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>5381.51781</v>
+        <v>302219.35855</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>15132.00171</v>
+        <v>352690.2033399999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5168.13088</v>
+        <v>299541.29556</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>16298.72736</v>
+        <v>513726.47194</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>22512.55881</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>435919.94578</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>489311.487</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1034.8425</v>
+        <v>26474.37616</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>678.0189200000001</v>
+        <v>33489.78075</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2057.50359</v>
+        <v>42345.19013</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1725.18094</v>
+        <v>49902.85854</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2117.82878</v>
+        <v>73242.21537000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1458.13299</v>
+        <v>50029.65291</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1502.40441</v>
+        <v>57398.37468</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>1935.50803</v>
+        <v>182887.95041</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3514.06453</v>
+        <v>257810.7118</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>13870.75638</v>
+        <v>289823.91494</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>13303.98401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>230218.5611</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>140062.049</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>12446.09364</v>
+        <v>119955.29569</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>10862.68518</v>
+        <v>101659.10246</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>10862.34395</v>
+        <v>121403.02366</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>12032.14579</v>
+        <v>139311.76477</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>11557.29485</v>
+        <v>120633.1916</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>11577.34326</v>
+        <v>188523.70427</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>12206.35993</v>
+        <v>260820.70945</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>13762.30928</v>
+        <v>324744.50455</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>14997.30955</v>
+        <v>337878.9566099999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>67752.55078000001</v>
+        <v>583491.58416</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>75316.29703</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>616069.0921900001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>428304.211</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1468.64737</v>
+        <v>3107.861159999999</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>1725.30166</v>
+        <v>2593.92951</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2053.69134</v>
+        <v>2543.56452</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1372.37082</v>
+        <v>1879.03247</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>785.2069200000001</v>
+        <v>1586.74605</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>554.39913</v>
+        <v>2289.09098</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>595.99488</v>
+        <v>1706.41237</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>405.86859</v>
+        <v>1800.18808</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>509.10854</v>
+        <v>11084.30128</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2065.48707</v>
+        <v>3495.16693</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>3848.18007</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>15323.20649</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>11385.948</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>2579.37636</v>
+        <v>77246.46256</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1433.84247</v>
+        <v>77258.03086</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2349.98104</v>
+        <v>227799.6845</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1234.05814</v>
+        <v>204612.28874</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1048.78401</v>
+        <v>197998.12052</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>30267.37882</v>
+        <v>230001.706</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1603.72545</v>
+        <v>11408.3032</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1627.55713</v>
+        <v>8721.20681</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>1449.42943</v>
+        <v>6419.812150000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>3211.86633</v>
+        <v>8635.427530000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>7737.53442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>20564.61685</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>25446.246</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1604.26473</v>
+        <v>19824.56175</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1489.81547</v>
+        <v>39063.58386</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2031.90965</v>
+        <v>61531.32083</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1687.96379</v>
+        <v>11754.25438</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1981.29804</v>
+        <v>13393.15405</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1231.51754</v>
+        <v>23755.81219</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1008.45089</v>
+        <v>9371.178639999998</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1776.68833</v>
+        <v>22692.86142</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>2621.675</v>
+        <v>10414.54713</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>15761.94588</v>
+        <v>29436.56319</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>4530.712680000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>24016.40348</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>201052.892</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>14173.07848</v>
+        <v>272664.4390700001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>30980.15111</v>
+        <v>399356.60516</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>32970.28283</v>
+        <v>572333.79061</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>12284.97418</v>
+        <v>280337.08361</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>14084.27853</v>
+        <v>352817.93786</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>35707.60258</v>
+        <v>646938.8250800001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>18822.42403</v>
+        <v>1021383.6453</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>19889.72696</v>
+        <v>1164382.79303</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>16240.47623</v>
+        <v>1244907.21633</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>124408.31537</v>
+        <v>3731721.36415</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>80133.11026999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1393685.46973</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2949648.867</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>288.36898</v>
+        <v>1594.23113</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>207.46012</v>
+        <v>2580.13567</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>201.50299</v>
+        <v>2292.85134</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>52.60238</v>
+        <v>1004.629</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>445.02868</v>
+        <v>465.2623</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>106.49753</v>
+        <v>579.07363</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>40.42663</v>
+        <v>541.5210400000001</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>30.03254</v>
+        <v>92.83291</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>2.42975</v>
+        <v>3907.34428</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>17.42577</v>
+        <v>336.95259</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>274.7755</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>801.4118899999999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9016.547</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1697.82908</v>
+        <v>1878.60761</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>647.05501</v>
+        <v>777.76099</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1301.30358</v>
+        <v>1751.44166</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>2028.2436</v>
+        <v>2231.235349999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1129.22283</v>
+        <v>1803.06369</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>138.50725</v>
+        <v>811.2439099999999</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>993.81488</v>
+        <v>1213.24394</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>313.89734</v>
+        <v>1557.59611</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>504.88221</v>
+        <v>1771.24499</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1045.96741</v>
+        <v>1961.88071</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1319.66108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>3060.23585</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1321.281</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>27163.27142</v>
+        <v>146169.85867</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>30760.04064</v>
+        <v>491797.77114</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>27840.97608</v>
+        <v>155191.44539</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>32583.75434</v>
+        <v>153389.52563</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>31067.55781</v>
+        <v>237705.88144</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>31413.50507</v>
+        <v>216628.21567</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>30935.51369</v>
+        <v>253694.14688</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>31003.65074</v>
+        <v>396270.8775</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>36642.86107</v>
+        <v>431787.50959</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>118602.87863</v>
+        <v>547742.94573</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>127417.71365</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>706745.1456599999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>639047.557</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>69303.13090999999</v>
+        <v>350849.7943</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>47215.04763</v>
+        <v>419744.81068</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>70728.68469999998</v>
+        <v>651402.3245099999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>30712.20509</v>
+        <v>465305.67498</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>101631.98931</v>
+        <v>534675.54863</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>56057.85951</v>
+        <v>715877.4619700001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>58093.85636</v>
+        <v>1258958.93542</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>67176.10484999999</v>
+        <v>1640481.49127</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>37727.61242</v>
+        <v>1609781.99271</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>216452.80999</v>
+        <v>4533789.6278</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>236924.12959</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2024008.94697</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3852782.915</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1817.96425</v>
+        <v>2454.39519</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1138.2985</v>
+        <v>3638.62312</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1302.19971</v>
+        <v>2919.21292</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1112.93933</v>
+        <v>2627.36724</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1590.50521</v>
+        <v>2650.5238</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1431.16116</v>
+        <v>3690.95609</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1189.2479</v>
+        <v>2291.336400000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1198.33072</v>
+        <v>4937.65733</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>770.9293</v>
+        <v>2578.953590000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4120.71165</v>
+        <v>6617.89403</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4378.38488</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7613.06744</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9238.469999999999</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>29034.11012</v>
+        <v>34750.04566999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2943.81364</v>
+        <v>6558.506010000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>4046.76513</v>
+        <v>9146.553900000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>5316.8367</v>
+        <v>15184.27148</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>4534.60243</v>
+        <v>12593.67314</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2249.04277</v>
+        <v>6175.81246</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5739.78392</v>
+        <v>12014.43904</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5921.33796</v>
+        <v>38319.12887</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>7821.6578</v>
+        <v>38760.38836</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>21330.11365</v>
+        <v>50416.36616000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>28944.93031</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>78486.08426999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>109094.518</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1266.21197</v>
+        <v>3080.34905</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>603.3773100000001</v>
+        <v>943.92159</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>347.57925</v>
+        <v>19938.84664</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>289.2967</v>
+        <v>11921.47688</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>330.8415</v>
+        <v>10379.64252</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>859.8684499999999</v>
+        <v>3356.36204</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>932.7121</v>
+        <v>3158.90724</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1170.71322</v>
+        <v>13045.12097</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>412.36783</v>
+        <v>4128.04914</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>852.46007</v>
+        <v>28390.46148</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>549.90284</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>5399.61604</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>11406.651</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>13523.46986</v>
+        <v>225115.53045</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>27951.27796</v>
+        <v>357527.08102</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>39912.91858999999</v>
+        <v>543025.52866</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>8956.467419999999</v>
+        <v>260319.72982</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>24020.39063</v>
+        <v>321926.62522</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>33817.40892</v>
+        <v>630351.32727</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>40483.10170000001</v>
+        <v>1152502.12927</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>45246.59647</v>
+        <v>1347469.53276</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>14036.45014</v>
+        <v>1335749.41137</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>135104.02231</v>
+        <v>4147195.97677</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>73023.29737999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1608167.19847</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3511412.059</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>202.70623</v>
+        <v>1488.31675</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>196.26626</v>
+        <v>2456.97157</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>103.83655</v>
+        <v>1117.78964</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>60.0569</v>
+        <v>877.2320100000001</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>225.36754</v>
+        <v>695.3576400000001</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>27.38732</v>
+        <v>373.6961700000001</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>142.22076</v>
+        <v>1620.97687</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>32.06942</v>
+        <v>5485.506520000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>214.63909</v>
+        <v>3204.27908</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>560.9031199999999</v>
+        <v>602.82785</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>60.31981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>365.04585</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>9159.677</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>333.56659</v>
+        <v>357.87673</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>214.19501</v>
+        <v>283.3875</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>289.22946</v>
+        <v>309.4609300000001</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>232.20875</v>
+        <v>236.28868</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>67.67426</v>
+        <v>102.82869</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>185.5357</v>
+        <v>236.52713</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>853.91229</v>
+        <v>1076.68668</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>117.47111</v>
+        <v>201.23982</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>185.58245</v>
+        <v>332.47515</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>686.17751</v>
+        <v>1167.24086</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>395.15366</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>612.30174</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>326.437</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>23125.10189</v>
+        <v>83603.28045999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>14167.81895</v>
+        <v>48336.31987000001</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>24726.15601</v>
+        <v>74944.93182</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>14744.39929</v>
+        <v>174139.30887</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>70862.60774000001</v>
+        <v>186326.89762</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>17487.45519</v>
+        <v>71692.78081</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>8752.877689999999</v>
+        <v>86294.45992000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>13489.58595</v>
+        <v>231023.305</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>14285.98581</v>
+        <v>225028.43602</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>53798.42168</v>
+        <v>299398.86065</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>129572.14071</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>323365.63316</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>202145.103</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>51483.04386</v>
+        <v>276410.4821</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>38513.95669</v>
+        <v>247413.81964</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>44315.74523000001</v>
+        <v>279733.53269</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>50249.62377000001</v>
+        <v>267107.60499</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>39673.63281</v>
+        <v>339686.50102</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>116933.47556</v>
+        <v>482881.42297</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>49127.71582</v>
+        <v>515962.55158</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>57524.38839</v>
+        <v>650188.11115</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>54282.79502000001</v>
+        <v>870691.32317</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>324275.839</v>
+        <v>2343450.78021</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>392491.69716</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1853676.58778</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1926436.904</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>48036.61175</v>
+        <v>215489.74497</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>36282.5796</v>
+        <v>183082.00188</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>40507.29176000001</v>
+        <v>199899.9464</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>47677.78994</v>
+        <v>229480.17784</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>37133.12183</v>
+        <v>263302.02587</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>114081.63279</v>
+        <v>401837.11934</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>45895.91042</v>
+        <v>470766.72047</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>55708.18269</v>
+        <v>616237.73103</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>51947.51067</v>
+        <v>752572.33395</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>309216.79526</v>
+        <v>1767609.82082</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>372943.76549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1672908.33842</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1585419.904</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3446.43211</v>
+        <v>60920.73713</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>2231.37709</v>
+        <v>64331.81776000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3808.45347</v>
+        <v>79833.58628999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2571.83383</v>
+        <v>37627.42715</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>2540.51098</v>
+        <v>76384.47514999998</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>2851.84277</v>
+        <v>81044.30362999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3231.8054</v>
+        <v>45195.83111000001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1816.2057</v>
+        <v>33950.38012</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>2335.28435</v>
+        <v>118118.98922</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>15059.04374</v>
+        <v>575840.95939</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>19547.93167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>180768.24936</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>341017</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>82864.82811</v>
+        <v>93126.26847</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>120247.92557</v>
+        <v>463810.35215</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>73355.87073000001</v>
+        <v>211600.11603</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>40161.69832</v>
+        <v>-3137.36564</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-95501.8835</v>
+        <v>371.349200000003</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-70905.03637999999</v>
+        <v>-102763.88989</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-92200.58246000001</v>
+        <v>-451004.42884</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-139615.17652</v>
+        <v>-582883.80258</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-130622.02778</v>
+        <v>-532094.09319</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>32814.84378</v>
+        <v>-1363745.28186</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-111183.21022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-482840.20959</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1126133.569</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>45718.17697</v>
+        <v>151906.32457</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>54223.80684999999</v>
+        <v>287788.68191</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>66058.89526999999</v>
+        <v>318260.73524</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>55442.75193000001</v>
+        <v>209639.64919</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>62832.01716</v>
+        <v>324203.25947</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>52602.55301</v>
+        <v>651654.19657</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>61300.64145999999</v>
+        <v>404141.80006</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>97708.94692</v>
+        <v>529226.25199</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>79085.067</v>
+        <v>424102.86477</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>221245.59255</v>
+        <v>906577.25953</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>279468.69888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1081146.88311</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1086137.07</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>4964.98103</v>
+        <v>16749.63548</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>5680.61097</v>
+        <v>14645.60191</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2990.13291</v>
+        <v>9013.064849999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3251.93609</v>
+        <v>10977.41988</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>5808.63474</v>
+        <v>20469.05281</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>3688.77109</v>
+        <v>8919.798989999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1380.6992</v>
+        <v>18321.7165</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5315.54159</v>
+        <v>27144.13623</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2433.12589</v>
+        <v>10921.08523</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>4098.579549999999</v>
+        <v>8989.71493</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7207.05751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>28314.91978</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>66915.183</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>40753.19594</v>
+        <v>135156.68909</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>48543.19588</v>
+        <v>273143.08</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>63068.76236</v>
+        <v>309247.67039</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>52190.81584</v>
+        <v>198662.22931</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>57023.38242</v>
+        <v>303734.20666</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>48913.78192</v>
+        <v>642734.3975799999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>59919.94226</v>
+        <v>385820.0835600001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>92393.40532999999</v>
+        <v>502082.11576</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>76651.94111</v>
+        <v>413181.77954</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>217147.013</v>
+        <v>897587.5446</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>272261.64137</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1052831.96333</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1019221.887</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>68311.05062000001</v>
+        <v>158140.64759</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>75430.57696000001</v>
+        <v>175768.84451</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>508905.36885</v>
+        <v>1216016.1665</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>82308.09623000001</v>
+        <v>304459.91905</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>72929.45978</v>
+        <v>255249.47879</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>184428.26254</v>
+        <v>953638.6929799999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>74754.10512000001</v>
+        <v>383682.72425</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>287928.10172</v>
+        <v>774016.8673</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>96916.45008000001</v>
+        <v>379812.21053</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>419397.80772</v>
+        <v>1066369.37403</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>289666.31499</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>978672.9954299999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>955169.426</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1444.35444</v>
+        <v>3213.4337</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1301.17779</v>
+        <v>2645.60264</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1612.40601</v>
+        <v>3963.07246</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1325.30195</v>
+        <v>1977.34961</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>812.74497</v>
+        <v>2865.360889999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1029.28924</v>
+        <v>3056.57655</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1026.32552</v>
+        <v>2676.02306</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1382.62546</v>
+        <v>6491.90073</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1662.84996</v>
+        <v>7128.756810000001</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>5266.51726</v>
+        <v>8959.03773</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3381.09438</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>6191.55728</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9684.424000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>11226.15822</v>
+        <v>30935.58298</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>14630.64515</v>
+        <v>37264.12863</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>18563.21096</v>
+        <v>44433.01518</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>13240.23462</v>
+        <v>28053.21471</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>12940.04977</v>
+        <v>37534.46841</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>9586.339699999999</v>
+        <v>30536.61496</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>12440.17755</v>
+        <v>52265.9529</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>13681.91799</v>
+        <v>51630.81194</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>12903.64508</v>
+        <v>57051.42748000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>21239.25452</v>
+        <v>60001.93874000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>23485.29794</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>66104.92857</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>129435.598</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>55640.53796</v>
+        <v>123991.63091</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>59498.75402</v>
+        <v>135859.11324</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>488729.75188</v>
+        <v>1167620.07886</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>67742.55966</v>
+        <v>274429.35473</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>59176.66504</v>
+        <v>214849.64949</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>173812.6336</v>
+        <v>920045.50147</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>61287.60204999999</v>
+        <v>328740.74829</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>272863.55827</v>
+        <v>715894.15463</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>82349.95504</v>
+        <v>315632.02624</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>392892.03594</v>
+        <v>997408.3975600001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>262799.92267</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>906376.5095800001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>816049.404</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>60271.95445999999</v>
+        <v>86891.94544999998</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>99041.15545999999</v>
+        <v>575830.1895500001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-369490.60285</v>
+        <v>-686155.3152300001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>13296.35402</v>
+        <v>-97957.6355</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-105599.32612</v>
+        <v>69325.12987999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-202730.74591</v>
+        <v>-404748.3863</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-105654.04612</v>
+        <v>-430545.3530300001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-329834.3313200001</v>
+        <v>-827674.41789</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-148453.41086</v>
+        <v>-487803.43895</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-165337.37139</v>
+        <v>-1523537.39636</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-121380.82633</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-380366.3219099999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-995165.925</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>56176.10022000001</v>
+        <v>93307.72466000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>60262.40358</v>
+        <v>104068.02896</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>63187.89389</v>
+        <v>116348.73243</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>54463.15804</v>
+        <v>102390.8926</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>55768.11372</v>
+        <v>132656.99249</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>49101.16268</v>
+        <v>129450.85409</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>52934.92720000001</v>
+        <v>141285.09203</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>56162.27229</v>
+        <v>172243.23184</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>54072.035</v>
+        <v>161770.10375</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>172852.77792</v>
+        <v>358166.06476</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>185840.25495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>356293.66154</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>432728.018</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4095.854240000002</v>
+        <v>-6415.779210000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>38778.75188</v>
+        <v>471762.16059</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-432678.49674</v>
+        <v>-802504.04766</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-41166.80402</v>
+        <v>-200348.5281</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-161367.43984</v>
+        <v>-63331.86261</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-251831.90859</v>
+        <v>-534199.2403899999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-158588.97332</v>
+        <v>-571830.4450599999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-385996.60361</v>
+        <v>-999917.6497300001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-202525.44586</v>
+        <v>-649573.5427</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-338190.14931</v>
+        <v>-1881703.46112</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-307221.08128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-736659.9834500001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1427893.943</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>40567</v>
+        <v>46858</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>40602</v>
+        <v>47646</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>41181</v>
+        <v>48771</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>38483</v>
+        <v>46922</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>35509</v>
+        <v>44959</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>35000</v>
+        <v>45625</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>36387</v>
+        <v>48973</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>38460</v>
+        <v>52790</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>40078</v>
+        <v>56308</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>54083</v>
+        <v>65204</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>55570</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>69528</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>73190</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>